--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.92287646124484</v>
+        <v>3.285322</v>
       </c>
       <c r="H2">
-        <v>1.92287646124484</v>
+        <v>9.855966</v>
       </c>
       <c r="I2">
-        <v>0.347749567167576</v>
+        <v>0.4533344065718998</v>
       </c>
       <c r="J2">
-        <v>0.347749567167576</v>
+        <v>0.4533344065718997</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.64248407093689</v>
+        <v>13.21223933333333</v>
       </c>
       <c r="N2">
-        <v>2.64248407093689</v>
+        <v>39.636718</v>
       </c>
       <c r="O2">
-        <v>0.8973858026055629</v>
+        <v>0.8149747101495924</v>
       </c>
       <c r="P2">
-        <v>0.8973858026055629</v>
+        <v>0.8149747101495927</v>
       </c>
       <c r="Q2">
-        <v>5.081170419218986</v>
+        <v>43.40646055106534</v>
       </c>
       <c r="R2">
-        <v>5.081170419218986</v>
+        <v>390.658144959588</v>
       </c>
       <c r="S2">
-        <v>0.3120655244384123</v>
+        <v>0.3694560765967715</v>
       </c>
       <c r="T2">
-        <v>0.3120655244384123</v>
+        <v>0.3694560765967715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.92287646124484</v>
+        <v>3.285322</v>
       </c>
       <c r="H3">
-        <v>1.92287646124484</v>
+        <v>9.855966</v>
       </c>
       <c r="I3">
-        <v>0.347749567167576</v>
+        <v>0.4533344065718998</v>
       </c>
       <c r="J3">
-        <v>0.347749567167576</v>
+        <v>0.4533344065718997</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.302162549573963</v>
+        <v>2.662736333333334</v>
       </c>
       <c r="N3">
-        <v>0.302162549573963</v>
+        <v>7.988209000000001</v>
       </c>
       <c r="O3">
-        <v>0.1026141973944372</v>
+        <v>0.1642464018940561</v>
       </c>
       <c r="P3">
-        <v>0.1026141973944372</v>
+        <v>0.1642464018940561</v>
       </c>
       <c r="Q3">
-        <v>0.5810212540455004</v>
+        <v>8.747946256099334</v>
       </c>
       <c r="R3">
-        <v>0.5810212540455004</v>
+        <v>78.73151630489401</v>
       </c>
       <c r="S3">
-        <v>0.03568404272916373</v>
+        <v>0.07445854513421166</v>
       </c>
       <c r="T3">
-        <v>0.03568404272916373</v>
+        <v>0.07445854513421167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.53147782689979</v>
+        <v>3.285322</v>
       </c>
       <c r="H4">
-        <v>1.53147782689979</v>
+        <v>9.855966</v>
       </c>
       <c r="I4">
-        <v>0.276965661687056</v>
+        <v>0.4533344065718998</v>
       </c>
       <c r="J4">
-        <v>0.276965661687056</v>
+        <v>0.4533344065718997</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.64248407093689</v>
+        <v>0.009795</v>
       </c>
       <c r="N4">
-        <v>2.64248407093689</v>
+        <v>0.029385</v>
       </c>
       <c r="O4">
-        <v>0.8973858026055629</v>
+        <v>0.0006041880626379251</v>
       </c>
       <c r="P4">
-        <v>0.8973858026055629</v>
+        <v>0.0006041880626379253</v>
       </c>
       <c r="Q4">
-        <v>4.046905762575739</v>
+        <v>0.03217972899</v>
       </c>
       <c r="R4">
-        <v>4.046905762575739</v>
+        <v>0.28961756091</v>
       </c>
       <c r="S4">
-        <v>0.2485450526072195</v>
+        <v>0.0002738992368337896</v>
       </c>
       <c r="T4">
-        <v>0.2485450526072195</v>
+        <v>0.0002738992368337896</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.53147782689979</v>
+        <v>3.285322</v>
       </c>
       <c r="H5">
-        <v>1.53147782689979</v>
+        <v>9.855966</v>
       </c>
       <c r="I5">
-        <v>0.276965661687056</v>
+        <v>0.4533344065718998</v>
       </c>
       <c r="J5">
-        <v>0.276965661687056</v>
+        <v>0.4533344065718997</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.302162549573963</v>
+        <v>0.327069</v>
       </c>
       <c r="N5">
-        <v>0.302162549573963</v>
+        <v>0.9812069999999999</v>
       </c>
       <c r="O5">
-        <v>0.1026141973944372</v>
+        <v>0.02017469989371348</v>
       </c>
       <c r="P5">
-        <v>0.1026141973944372</v>
+        <v>0.02017469989371348</v>
       </c>
       <c r="Q5">
-        <v>0.4627552447920329</v>
+        <v>1.074526981218</v>
       </c>
       <c r="R5">
-        <v>0.4627552447920329</v>
+        <v>9.670742830962</v>
       </c>
       <c r="S5">
-        <v>0.02842060907983647</v>
+        <v>0.009145885604082769</v>
       </c>
       <c r="T5">
-        <v>0.02842060907983647</v>
+        <v>0.009145885604082769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.06210136593263</v>
+        <v>1.533623</v>
       </c>
       <c r="H6">
-        <v>1.06210136593263</v>
+        <v>4.600869</v>
       </c>
       <c r="I6">
-        <v>0.1920795733554588</v>
+        <v>0.2116212878402838</v>
       </c>
       <c r="J6">
-        <v>0.1920795733554588</v>
+        <v>0.2116212878402837</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.64248407093689</v>
+        <v>13.21223933333333</v>
       </c>
       <c r="N6">
-        <v>2.64248407093689</v>
+        <v>39.636718</v>
       </c>
       <c r="O6">
-        <v>0.8973858026055629</v>
+        <v>0.8149747101495924</v>
       </c>
       <c r="P6">
-        <v>0.8973858026055629</v>
+        <v>0.8149747101495927</v>
       </c>
       <c r="Q6">
-        <v>2.806585941197288</v>
+        <v>20.26259412310467</v>
       </c>
       <c r="R6">
-        <v>2.806585941197288</v>
+        <v>182.363347107942</v>
       </c>
       <c r="S6">
-        <v>0.1723694820997225</v>
+        <v>0.1724659977191187</v>
       </c>
       <c r="T6">
-        <v>0.1723694820997225</v>
+        <v>0.1724659977191187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.06210136593263</v>
+        <v>1.533623</v>
       </c>
       <c r="H7">
-        <v>1.06210136593263</v>
+        <v>4.600869</v>
       </c>
       <c r="I7">
-        <v>0.1920795733554588</v>
+        <v>0.2116212878402838</v>
       </c>
       <c r="J7">
-        <v>0.1920795733554588</v>
+        <v>0.2116212878402837</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.302162549573963</v>
+        <v>2.662736333333334</v>
       </c>
       <c r="N7">
-        <v>0.302162549573963</v>
+        <v>7.988209000000001</v>
       </c>
       <c r="O7">
-        <v>0.1026141973944372</v>
+        <v>0.1642464018940561</v>
       </c>
       <c r="P7">
-        <v>0.1026141973944372</v>
+        <v>0.1642464018940561</v>
       </c>
       <c r="Q7">
-        <v>0.3209272566361921</v>
+        <v>4.083633683735668</v>
       </c>
       <c r="R7">
-        <v>0.3209272566361921</v>
+        <v>36.75270315362101</v>
       </c>
       <c r="S7">
-        <v>0.01971009125573632</v>
+        <v>0.03475803509195297</v>
       </c>
       <c r="T7">
-        <v>0.01971009125573632</v>
+        <v>0.03475803509195297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.01303062798109</v>
+        <v>1.533623</v>
       </c>
       <c r="H8">
-        <v>1.01303062798109</v>
+        <v>4.600869</v>
       </c>
       <c r="I8">
-        <v>0.1832051977899093</v>
+        <v>0.2116212878402838</v>
       </c>
       <c r="J8">
-        <v>0.1832051977899093</v>
+        <v>0.2116212878402837</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.64248407093689</v>
+        <v>0.009795</v>
       </c>
       <c r="N8">
-        <v>2.64248407093689</v>
+        <v>0.029385</v>
       </c>
       <c r="O8">
-        <v>0.8973858026055629</v>
+        <v>0.0006041880626379251</v>
       </c>
       <c r="P8">
-        <v>0.8973858026055629</v>
+        <v>0.0006041880626379253</v>
       </c>
       <c r="Q8">
-        <v>2.676917297811225</v>
+        <v>0.015021837285</v>
       </c>
       <c r="R8">
-        <v>2.676917297811225</v>
+        <v>0.135196535565</v>
       </c>
       <c r="S8">
-        <v>0.1644057434602086</v>
+        <v>0.0001278590559131637</v>
       </c>
       <c r="T8">
-        <v>0.1644057434602086</v>
+        <v>0.0001278590559131637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.01303062798109</v>
+        <v>1.533623</v>
       </c>
       <c r="H9">
-        <v>1.01303062798109</v>
+        <v>4.600869</v>
       </c>
       <c r="I9">
-        <v>0.1832051977899093</v>
+        <v>0.2116212878402838</v>
       </c>
       <c r="J9">
-        <v>0.1832051977899093</v>
+        <v>0.2116212878402837</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.302162549573963</v>
+        <v>0.327069</v>
       </c>
       <c r="N9">
-        <v>0.302162549573963</v>
+        <v>0.9812069999999999</v>
       </c>
       <c r="O9">
-        <v>0.1026141973944372</v>
+        <v>0.02017469989371348</v>
       </c>
       <c r="P9">
-        <v>0.1026141973944372</v>
+        <v>0.02017469989371348</v>
       </c>
       <c r="Q9">
-        <v>0.3060999173472789</v>
+        <v>0.501600540987</v>
       </c>
       <c r="R9">
-        <v>0.3060999173472789</v>
+        <v>4.514404868883</v>
       </c>
       <c r="S9">
-        <v>0.01879945432970065</v>
+        <v>0.004269395973298882</v>
       </c>
       <c r="T9">
-        <v>0.01879945432970065</v>
+        <v>0.004269395973298882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.389186666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.16756</v>
+      </c>
+      <c r="I10">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="J10">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>13.21223933333333</v>
+      </c>
+      <c r="N10">
+        <v>39.636718</v>
+      </c>
+      <c r="O10">
+        <v>0.8149747101495924</v>
+      </c>
+      <c r="P10">
+        <v>0.8149747101495927</v>
+      </c>
+      <c r="Q10">
+        <v>18.35426671867556</v>
+      </c>
+      <c r="R10">
+        <v>165.18840046808</v>
+      </c>
+      <c r="S10">
+        <v>0.1562231816324895</v>
+      </c>
+      <c r="T10">
+        <v>0.1562231816324895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.389186666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.16756</v>
+      </c>
+      <c r="I11">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="J11">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.662736333333334</v>
+      </c>
+      <c r="N11">
+        <v>7.988209000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.1642464018940561</v>
+      </c>
+      <c r="P11">
+        <v>0.1642464018940561</v>
+      </c>
+      <c r="Q11">
+        <v>3.699037811115556</v>
+      </c>
+      <c r="R11">
+        <v>33.29134030004001</v>
+      </c>
+      <c r="S11">
+        <v>0.03148452971119575</v>
+      </c>
+      <c r="T11">
+        <v>0.03148452971119576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.389186666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.16756</v>
+      </c>
+      <c r="I12">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="J12">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009795</v>
+      </c>
+      <c r="N12">
+        <v>0.029385</v>
+      </c>
+      <c r="O12">
+        <v>0.0006041880626379251</v>
+      </c>
+      <c r="P12">
+        <v>0.0006041880626379253</v>
+      </c>
+      <c r="Q12">
+        <v>0.0136070834</v>
+      </c>
+      <c r="R12">
+        <v>0.1224637506</v>
+      </c>
+      <c r="S12">
+        <v>0.0001158173134382797</v>
+      </c>
+      <c r="T12">
+        <v>0.0001158173134382797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.389186666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.16756</v>
+      </c>
+      <c r="I13">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="J13">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.327069</v>
+      </c>
+      <c r="N13">
+        <v>0.9812069999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.02017469989371348</v>
+      </c>
+      <c r="P13">
+        <v>0.02017469989371348</v>
+      </c>
+      <c r="Q13">
+        <v>0.45435989388</v>
+      </c>
+      <c r="R13">
+        <v>4.089239044919999</v>
+      </c>
+      <c r="S13">
+        <v>0.003867305042260817</v>
+      </c>
+      <c r="T13">
+        <v>0.003867305042260818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.038885</v>
+      </c>
+      <c r="H14">
+        <v>3.116655</v>
+      </c>
+      <c r="I14">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="J14">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>13.21223933333333</v>
+      </c>
+      <c r="N14">
+        <v>39.636718</v>
+      </c>
+      <c r="O14">
+        <v>0.8149747101495924</v>
+      </c>
+      <c r="P14">
+        <v>0.8149747101495927</v>
+      </c>
+      <c r="Q14">
+        <v>13.72599725981</v>
+      </c>
+      <c r="R14">
+        <v>123.53397533829</v>
+      </c>
+      <c r="S14">
+        <v>0.1168294542012128</v>
+      </c>
+      <c r="T14">
+        <v>0.1168294542012128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.038885</v>
+      </c>
+      <c r="H15">
+        <v>3.116655</v>
+      </c>
+      <c r="I15">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="J15">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.662736333333334</v>
+      </c>
+      <c r="N15">
+        <v>7.988209000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.1642464018940561</v>
+      </c>
+      <c r="P15">
+        <v>0.1642464018940561</v>
+      </c>
+      <c r="Q15">
+        <v>2.766276835655</v>
+      </c>
+      <c r="R15">
+        <v>24.896491520895</v>
+      </c>
+      <c r="S15">
+        <v>0.02354529195669571</v>
+      </c>
+      <c r="T15">
+        <v>0.02354529195669572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.038885</v>
+      </c>
+      <c r="H16">
+        <v>3.116655</v>
+      </c>
+      <c r="I16">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="J16">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009795</v>
+      </c>
+      <c r="N16">
+        <v>0.029385</v>
+      </c>
+      <c r="O16">
+        <v>0.0006041880626379251</v>
+      </c>
+      <c r="P16">
+        <v>0.0006041880626379253</v>
+      </c>
+      <c r="Q16">
+        <v>0.010175878575</v>
+      </c>
+      <c r="R16">
+        <v>0.09158290717499999</v>
+      </c>
+      <c r="S16">
+        <v>8.661245645269212E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.661245645269215E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.038885</v>
+      </c>
+      <c r="H17">
+        <v>3.116655</v>
+      </c>
+      <c r="I17">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="J17">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.327069</v>
+      </c>
+      <c r="N17">
+        <v>0.9812069999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.02017469989371348</v>
+      </c>
+      <c r="P17">
+        <v>0.02017469989371348</v>
+      </c>
+      <c r="Q17">
+        <v>0.339787078065</v>
+      </c>
+      <c r="R17">
+        <v>3.058083702584999</v>
+      </c>
+      <c r="S17">
+        <v>0.002892113274071012</v>
+      </c>
+      <c r="T17">
+        <v>0.002892113274071012</v>
       </c>
     </row>
   </sheetData>
